--- a/The Allure of Machinic Life.xlsx
+++ b/The Allure of Machinic Life.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="525" windowWidth="27555" windowHeight="12180"/>
+    <workbookView xWindow="720" yWindow="585" windowWidth="27555" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -82,6 +83,9 @@
   </si>
   <si>
     <t>Progress (%)</t>
+  </si>
+  <si>
+    <t>Lost interest in Lacan/Psychoanalysis theory</t>
   </si>
 </sst>
 </file>
@@ -252,10 +256,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$100</c:f>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>26.365625001664739</c:v>
                 </c:pt>
@@ -263,6 +267,18 @@
                   <c:v>25.677826088786709</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>25.739999999001153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.0490566040746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.365625001664739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0490566040746</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>25.739999999001153</c:v>
                 </c:pt>
               </c:numCache>
@@ -289,10 +305,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$100</c:f>
+              <c:f>Sheet1!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>26.365625001664739</c:v>
                 </c:pt>
@@ -301,6 +317,18 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25.698517325628327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.808612048136826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.554163794849519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.906366052213837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.881711971532294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,11 +345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54666752"/>
-        <c:axId val="63992896"/>
+        <c:axId val="40323584"/>
+        <c:axId val="56095808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54666752"/>
+        <c:axId val="40323584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,7 +397,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63992896"/>
+        <c:crossAx val="56095808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63992896"/>
+        <c:axId val="56095808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54666752"/>
+        <c:crossAx val="40323584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -756,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +803,7 @@
     <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -807,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43020.7</v>
       </c>
@@ -821,19 +849,19 @@
         <v>25</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E9" si="0">C2-A2</f>
+        <f t="shared" ref="E2" si="0">C2-A2</f>
         <v>4.0972222224809229E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">D2-B2+1</f>
+        <f t="shared" ref="F2" si="1">D2-B2+1</f>
         <v>16</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G9" si="2">F2/(E2*24*60)</f>
+        <f t="shared" ref="G2" si="2">F2/(E2*24*60)</f>
         <v>0.27118644066084324</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H9" si="3">G2*60</f>
+        <f t="shared" ref="H2" si="3">G2*60</f>
         <v>16.271186439650595</v>
       </c>
       <c r="I2" s="2">
@@ -845,7 +873,7 @@
         <v>26.365625001664739</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43021.543749999997</v>
       </c>
@@ -883,7 +911,7 @@
         <v>25.677826088786709</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43022.670138888891</v>
       </c>
@@ -921,37 +949,168 @@
         <v>25.698517325628327</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>43027.552083333336</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43027.59097222222</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5" si="12">C5-A5</f>
+        <v>3.8888888884685002E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5" si="13">D5-B5+1</f>
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5" si="14">F5/(E5*24*60)</f>
+        <v>0.23214285716795177</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5" si="15">G5*60</f>
+        <v>13.928571430077106</v>
+      </c>
+      <c r="I5" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H5)</f>
+        <v>26.0490566040746</v>
+      </c>
+      <c r="J5" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H5)</f>
+        <v>26.808612048136826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>43028.70208333333</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43028.739583333336</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" ref="E6" si="16">C6-A6</f>
+        <v>3.7500000005820766E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="17">D6-B6+1</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6" si="18">F6/(E6*24*60)</f>
+        <v>0.18518518515644067</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6" si="19">G6*60</f>
+        <v>11.111111109386441</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H6)</f>
+        <v>26.365625001664739</v>
+      </c>
+      <c r="J6" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H6)</f>
+        <v>28.554163794849519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>43029.666666666664</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43029.701388888891</v>
+      </c>
+      <c r="D7">
+        <v>119</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7" si="20">C7-A7</f>
+        <v>3.4722222226264421E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="21">D7-B7+1</f>
+        <v>40</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="22">F7/(E7*24*60)</f>
+        <v>0.79999999990686776</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="23">G7*60</f>
+        <v>47.999999994412065</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H7)</f>
+        <v>26.0490566040746</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H7)</f>
+        <v>20.906366052213837</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>43041.662499999999</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43041.702777777777</v>
+      </c>
+      <c r="D8">
+        <v>139</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" ref="E8" si="24">C8-A8</f>
+        <v>4.0277777778101154E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="25">D8-B8+1</f>
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8" si="26">F8/(E8*24*60)</f>
+        <v>0.34482758620412807</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8" si="27">G8*60</f>
+        <v>20.689655172247683</v>
+      </c>
+      <c r="I8" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H8)</f>
+        <v>25.739999999001153</v>
+      </c>
+      <c r="J8" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H8)</f>
+        <v>20.881711971532294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="C9" s="12"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="10"/>
       <c r="C10" s="12"/>
@@ -959,7 +1118,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="10"/>
       <c r="C11" s="12"/>
@@ -967,7 +1126,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12"/>
@@ -975,7 +1134,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="10"/>
       <c r="C13" s="12"/>
@@ -983,7 +1142,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="12"/>
@@ -991,7 +1150,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="10"/>
       <c r="C15" s="12"/>
@@ -999,7 +1158,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
       <c r="C16" s="12"/>
@@ -1775,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1957,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>56</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1966,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>13.053613053613052</v>
+        <v>32.400932400932405</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1975,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>373</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1984,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>86.946386946386951</v>
+        <v>67.599067599067595</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1843,7 +2002,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>25.698517325628327</v>
+        <v>20.881711971532294</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +2011,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>4.1482673372826184E-2</v>
+        <v>4.8582880274688591</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1861,7 +2020,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>22.379999999131538</v>
+        <v>17.399999999324788</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1870,7 +2029,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>22.343932313425096</v>
+        <v>14.115842591478707</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,19 +2052,19 @@
       </c>
       <c r="E36" s="11">
         <f>MIN(Sheet1!E2:E1000)</f>
-        <v>3.7499999998544808E-2</v>
+        <v>3.4722222226264421E-2</v>
       </c>
       <c r="F36" s="4">
         <f>MIN(Sheet1!F2:F1000)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4">
         <f>MIN(Sheet1!G2:G1000)</f>
-        <v>0.27118644066084324</v>
+        <v>0.18518518515644067</v>
       </c>
       <c r="H36" s="4">
         <f>MIN(Sheet1!H2:H1000)</f>
-        <v>16.271186439650595</v>
+        <v>11.111111109386441</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1918,15 +2077,15 @@
       </c>
       <c r="F37" s="4">
         <f>MAX(Sheet1!F2:F1000)</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G37" s="4">
         <f>MAX(Sheet1!G2:G1000)</f>
-        <v>0.28571428569171542</v>
+        <v>0.79999999990686776</v>
       </c>
       <c r="H37" s="4">
         <f>MAX(Sheet1!H2:H1000)</f>
-        <v>17.142857141502926</v>
+        <v>47.999999994412065</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,7 +2094,7 @@
       </c>
       <c r="E38" s="11">
         <f>MEDIAN(Sheet1!E2:E1000)</f>
-        <v>3.888888889196096E-2</v>
+        <v>3.8888888884685002E-2</v>
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
@@ -1956,19 +2115,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>3.9120370371771664E-2</v>
+        <v>3.8392857144312335E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>15.666666666666666</v>
+        <v>18.571428571428573</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.27822616804703859</v>
+        <v>0.34240487608235765</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>16.693570082822315</v>
+        <v>20.544292564941461</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1977,11 +2136,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:2:49:00</v>
+        <v>0:6:27:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
